--- a/testFile/test-data.xlsx
+++ b/testFile/test-data.xlsx
@@ -257,269 +257,40 @@
   <si>
     <r>
       <t>{
- "editFileList":[""],
- "id":"",
- "superRequireId":"",
- "productId": "44b74731-e341-4dad-af1e-b5926738bfb9",
- "versionId": "a3e1f944-b504-4940-b81f-ac0e6e6eec4e",
- "fileName":[],
- "filePath":[],
- "name": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01",
- "project": "1881",
- "projectId": "1881",
- "projectName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浙江臻善科技系统开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-2012.12",
- "assessor":[],
- "reviewersIds": [],
- "multiPersonReview": "false",
- "tags": [],
- "csmember": [],
- "src": "",
- "module": "509131d7-5fdc-47ab-939d-f52342ec0d1c",
- "sourceType": "",
- "insideSource": "",
- "insideSourceName": "",
- "outsideSource": "",
- "areaArr": ["</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浙江省</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>", "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金华市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"],
- "endDate": "2022-08-31",
- "solver": "3771",
- "devDeadline": "",
- "level": "3",
- "contractRange": "1",
- "acceptRequire": "1",
- "importance": "2",
- "desc": "&lt;div&gt;&lt;p class=\"name\"&gt;&lt;span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需求背景</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/span&gt; &lt;span class=\"normal\"&gt;&amp;lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要解决什么问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;gt;&lt;/span&gt;&lt;/p&gt; &lt;p class=\"name\"&gt;&lt;span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需求描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/span&gt; &lt;span class=\"normal\"&gt;&amp;lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要什么功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;gt;&lt;/span&gt;&lt;/p&gt; &lt;p class=\"name\"&gt;&lt;span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建议方案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/span&gt; &lt;span class=\"normal\"&gt;&amp;lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建议怎么做</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;gt;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;"
-}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
- "productId": "44b74731-e341-4dad-af1e-b5926738bfb9",
- "versionId": "a3e1f944-b504-4940-b81f-ac0e6e6eec4e",
- "taskName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>子任务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uuu",
- "number": "130",
- "requireId": "0f9dc028-4423-4bae-af8d-214f5d0739ee",
- "requires": [],
- "project": {
-  "id": "9675",
-  "projectName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绩效考核系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
- },
- "projectId": "9675",
- "projectName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绩效考核系统</t>
+ "userName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1",
+ "name": "${name}",
+ "passWord": "123456C",
+ "subPassWord": "BbCwFtr2B5ySEdibGkoujw==",
+ "rePassWord": "123456C",
+ "numberPhone": "${phone}",
+ "eMail": "1234@qq.com",
+ "companyName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试单位</t>
     </r>
     <r>
       <rPr>
@@ -528,23 +299,16 @@
         <family val="2"/>
       </rPr>
       <t>",
- "tags": [],
- "inputVisible": "false",
- "inputValue": "",
- "taskType": 3,
- "handlerId": "3771",
- "persons": [],
- "moduleId": "509131d7-5fdc-47ab-939d-f52342ec0d1c",
- "moduleName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块一</t>
+ "area": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浙江省杭州市</t>
     </r>
     <r>
       <rPr>
@@ -553,104 +317,7 @@
         <family val="2"/>
       </rPr>
       <t>",
- "modules": [],
- "startTime": "2022-08-07",
- "endTime": "2022-08-20",
- "priority": 3,
- "taskIntergral": 0,
- "complexCount": "",
- "complexWeight": 40,
- "urgencyCount": "",
- "urgencyWeight": 30,
- "innovateCount": "",
- "innovateWeight": 30,
- "levels": [{
-  "value": 1,
-  "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>紧急</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
- }, {
-  "value": 2,
-  "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
- }, {
-  "value": 3,
-  "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
- }, {
-  "value": 4,
-  "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>低</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"
- }],
- "predictTime": "1",
- "description": "&lt;p&gt;&lt;br&gt;&lt;/p&gt;",
- "fileName": "[]",
- "filePath": "[]",
- "module": "",
- "superTaskId": "96f44f48-919f-448b-a099-dbc058f570a1"
+ "dockingPersonnel": "123"
 }</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -685,7 +352,7 @@
       <t>"
  },
  "outerType": 1,
- "taskName": "测试外部工单00",
+ "taskName": "测试外部工单66",
  "relateSystemId": "",
  "project": {
   "id": "1881",
@@ -843,40 +510,269 @@
   <si>
     <r>
       <t>{
- "userName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1",
- "name": "${name}",
- "passWord": "123456C",
- "subPassWord": "BbCwFtr2B5ySEdibGkoujw==",
- "rePassWord": "123456C",
- "numberPhone": "${phone}",
- "eMail": "1234@qq.com",
- "companyName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试单位</t>
+ "editFileList":[""],
+ "id":"",
+ "superRequireId":"",
+ "productId": "44b74731-e341-4dad-af1e-b5926738bfb9",
+ "versionId": "a3e1f944-b504-4940-b81f-ac0e6e6eec4e",
+ "fileName":[],
+ "filePath":[],
+ "name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>66",
+ "project": "1881",
+ "projectId": "1881",
+ "projectName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浙江臻善科技系统开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2012.12",
+ "assessor":[],
+ "reviewersIds": [],
+ "multiPersonReview": "false",
+ "tags": [],
+ "csmember": [],
+ "src": "",
+ "module": "509131d7-5fdc-47ab-939d-f52342ec0d1c",
+ "sourceType": "",
+ "insideSource": "",
+ "insideSourceName": "",
+ "outsideSource": "",
+ "areaArr": ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浙江省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金华市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"],
+ "endDate": "2022-08-31",
+ "solver": "3771",
+ "devDeadline": "",
+ "level": "3",
+ "contractRange": "1",
+ "acceptRequire": "1",
+ "importance": "2",
+ "desc": "&lt;div&gt;&lt;p class=\"name\"&gt;&lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求背景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt; &lt;span class=\"normal\"&gt;&amp;lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要解决什么问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;gt;&lt;/span&gt;&lt;/p&gt; &lt;p class=\"name\"&gt;&lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt; &lt;span class=\"normal\"&gt;&amp;lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要什么功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;gt;&lt;/span&gt;&lt;/p&gt; &lt;p class=\"name\"&gt;&lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议方案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt; &lt;span class=\"normal\"&gt;&amp;lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议怎么做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;gt;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;"
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "productId": "44b74731-e341-4dad-af1e-b5926738bfb9",
+ "versionId": "a3e1f944-b504-4940-b81f-ac0e6e6eec4e",
+ "taskName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>66",
+ "number": "130",
+ "requireId": "0f9dc028-4423-4bae-af8d-214f5d0739ee",
+ "requires": [],
+ "project": {
+  "id": "9675",
+  "projectName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绩效考核系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+ },
+ "projectId": "9675",
+ "projectName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绩效考核系统</t>
     </r>
     <r>
       <rPr>
@@ -885,16 +781,23 @@
         <family val="2"/>
       </rPr>
       <t>",
- "area": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浙江省杭州市</t>
+ "tags": [],
+ "inputVisible": "false",
+ "inputValue": "",
+ "taskType": 3,
+ "handlerId": "3771",
+ "persons": [],
+ "moduleId": "509131d7-5fdc-47ab-939d-f52342ec0d1c",
+ "moduleName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块一</t>
     </r>
     <r>
       <rPr>
@@ -903,7 +806,104 @@
         <family val="2"/>
       </rPr>
       <t>",
- "dockingPersonnel": "123"
+ "modules": [],
+ "startTime": "2022-08-07",
+ "endTime": "2022-08-20",
+ "priority": 3,
+ "taskIntergral": 0,
+ "complexCount": "",
+ "complexWeight": 40,
+ "urgencyCount": "",
+ "urgencyWeight": 30,
+ "innovateCount": "",
+ "innovateWeight": 30,
+ "levels": [{
+  "value": 1,
+  "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+ }, {
+  "value": 2,
+  "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+ }, {
+  "value": 3,
+  "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+ }, {
+  "value": 4,
+  "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+ }],
+ "predictTime": "1",
+ "description": "&lt;p&gt;&lt;br&gt;&lt;/p&gt;",
+ "fileName": "[]",
+ "filePath": "[]",
+ "module": "",
+ "superTaskId": "96f44f48-919f-448b-a099-dbc058f570a1"
 }</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1410,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1909,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7">
         <v>200</v>
@@ -1935,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="7">
         <v>200</v>
@@ -1961,7 +1961,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7">
         <v>200</v>
@@ -1985,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7">
         <v>200</v>
